--- a/Excel/tiny_tool.xlsx
+++ b/Excel/tiny_tool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="max_len" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="11">
   <si>
     <t>CF_AD_1</t>
   </si>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,9 +521,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -805,11 +807,642 @@
         <v>19</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A19,B19,C19)</f>
         <v>,:19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:D61" si="1">CONCATENATE(A20,B20,C20)</f>
+        <v>,:20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>,:21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>,:22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>,:23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>,:24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>,:25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>,:26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>,:27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>,:28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>,:29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>,:30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>,:31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>,:32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>,:33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>,:34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>,:35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>,:36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>,:37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>,:38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>,:39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>,:40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>,:41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>,:42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>,:43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>,:44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>,:45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>,:46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>,:47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>,:48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>,:49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>,:50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>,:51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>,:52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>,:53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>,:54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>,:55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>,:56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>,:57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>,:58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>,:59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>,:60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>,:61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/tiny_tool.xlsx
+++ b/Excel/tiny_tool.xlsx
@@ -54,10 +54,10 @@
     <t>, max(length(</t>
   </si>
   <si>
-    <t>:</t>
+    <t>,</t>
   </si>
   <si>
-    <t>,</t>
+    <t xml:space="preserve"> :</t>
   </si>
 </sst>
 </file>
@@ -523,922 +523,922 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
-        <v>:1</v>
+        <v xml:space="preserve"> :1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D19" si="0">CONCATENATE(A2,B2,C2)</f>
-        <v>,:2</v>
+        <f t="shared" ref="D2:D61" si="0">CONCATENATE(A2,B2,C2)</f>
+        <v>, :2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>,:3</v>
+        <v>, :3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>,:4</v>
+        <v>, :4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>,:5</v>
+        <v>, :5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>,:6</v>
+        <v>, :6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>,:7</v>
+        <v>, :7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>,:8</v>
+        <v>, :8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>,:9</v>
+        <v>, :9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>,:10</v>
+        <v>, :10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>,:11</v>
+        <v>, :11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>,:12</v>
+        <v>, :12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>,:13</v>
+        <v>, :13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>,:14</v>
+        <v>, :14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>,:15</v>
+        <v>, :15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>,:16</v>
+        <v>, :16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>,:17</v>
+        <v>, :17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>,:18</v>
+        <v>, :18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE(A19,B19,C19)</f>
-        <v>,:19</v>
+        <f t="shared" si="0"/>
+        <v>, :19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ref="D20:D61" si="1">CONCATENATE(A20,B20,C20)</f>
-        <v>,:20</v>
+        <f t="shared" si="0"/>
+        <v>, :20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>,:21</v>
+        <f t="shared" si="0"/>
+        <v>, :21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>,:22</v>
+        <f t="shared" si="0"/>
+        <v>, :22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>,:23</v>
+        <f t="shared" si="0"/>
+        <v>, :23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>,:24</v>
+        <f t="shared" si="0"/>
+        <v>, :24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>,:25</v>
+        <f t="shared" si="0"/>
+        <v>, :25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>26</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>,:26</v>
+        <f t="shared" si="0"/>
+        <v>, :26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>,:27</v>
+        <f t="shared" si="0"/>
+        <v>, :27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>,:28</v>
+        <f t="shared" si="0"/>
+        <v>, :28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>29</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>,:29</v>
+        <f t="shared" si="0"/>
+        <v>, :29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>,:30</v>
+        <f t="shared" si="0"/>
+        <v>, :30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>,:31</v>
+        <f t="shared" si="0"/>
+        <v>, :31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>32</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>,:32</v>
+        <f t="shared" si="0"/>
+        <v>, :32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>,:33</v>
+        <f t="shared" si="0"/>
+        <v>, :33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>34</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>,:34</v>
+        <f t="shared" si="0"/>
+        <v>, :34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>35</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>,:35</v>
+        <f t="shared" si="0"/>
+        <v>, :35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>36</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>,:36</v>
+        <f t="shared" si="0"/>
+        <v>, :36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>37</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>,:37</v>
+        <f t="shared" si="0"/>
+        <v>, :37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>38</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>,:38</v>
+        <f t="shared" si="0"/>
+        <v>, :38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>39</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>,:39</v>
+        <f t="shared" si="0"/>
+        <v>, :39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>,:40</v>
+        <f t="shared" si="0"/>
+        <v>, :40</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>41</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>,:41</v>
+        <f t="shared" si="0"/>
+        <v>, :41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>42</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>,:42</v>
+        <f t="shared" si="0"/>
+        <v>, :42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>43</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>,:43</v>
+        <f t="shared" si="0"/>
+        <v>, :43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>44</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>,:44</v>
+        <f t="shared" si="0"/>
+        <v>, :44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>45</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>,:45</v>
+        <f t="shared" si="0"/>
+        <v>, :45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>46</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>,:46</v>
+        <f t="shared" si="0"/>
+        <v>, :46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>47</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>,:47</v>
+        <f t="shared" si="0"/>
+        <v>, :47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>48</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>,:48</v>
+        <f t="shared" si="0"/>
+        <v>, :48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>49</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>,:49</v>
+        <f t="shared" si="0"/>
+        <v>, :49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>,:50</v>
+        <f t="shared" si="0"/>
+        <v>, :50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>51</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>,:51</v>
+        <f t="shared" si="0"/>
+        <v>, :51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>,:52</v>
+        <f t="shared" si="0"/>
+        <v>, :52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>53</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>,:53</v>
+        <f t="shared" si="0"/>
+        <v>, :53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>,:54</v>
+        <f t="shared" si="0"/>
+        <v>, :54</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>55</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>,:55</v>
+        <f t="shared" si="0"/>
+        <v>, :55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>56</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>,:56</v>
+        <f t="shared" si="0"/>
+        <v>, :56</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>57</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>,:57</v>
+        <f t="shared" si="0"/>
+        <v>, :57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>58</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>,:58</v>
+        <f t="shared" si="0"/>
+        <v>, :58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>59</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>,:59</v>
+        <f t="shared" si="0"/>
+        <v>, :59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>,:60</v>
+        <f t="shared" si="0"/>
+        <v>, :60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>61</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>,:61</v>
+        <f t="shared" si="0"/>
+        <v>, :61</v>
       </c>
     </row>
   </sheetData>
